--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalashnikov\Desktop\ddd\qamid-diplom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>№</t>
   </si>
@@ -100,141 +108,75 @@
     <t>Разворачивание блока заявок на главном экране</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на блок заявок 
-Нажать повторно на блок заявок</t>
-  </si>
-  <si>
     <t>Блок заявок раскрывается/сворачивается</t>
   </si>
   <si>
     <t>Открытие экрана новостей с главного экрана</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на надпись «Все новости»</t>
-  </si>
-  <si>
     <t>Видны только новости</t>
   </si>
   <si>
     <t>Открытие экрана заявок с главного экрана</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на надпись «Все заявки»</t>
-  </si>
-  <si>
     <t>Видны только заявки</t>
   </si>
   <si>
     <t>Разворачивание новости на главном экране</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на новость
-Нажать повторно на новость</t>
-  </si>
-  <si>
     <t>Новость разворачивается и сворачивается</t>
   </si>
   <si>
     <t>Открытие заявки с главного экрана</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на заявку</t>
-  </si>
-  <si>
     <t>На экране видна заявка и вся информация в ней</t>
   </si>
   <si>
     <t>Возврат из заявки к главному экрану</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на заявки
-Нажать кнопку назад</t>
-  </si>
-  <si>
     <t>Виден главный экран с новостями и заявками</t>
   </si>
   <si>
     <t>Создание заявки с главного экрана</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на кнопку создания заявки
-Ввести данные
-Сохранить изменения</t>
-  </si>
-  <si>
     <t>Заявки отображается на главном экране</t>
   </si>
   <si>
-    <t>Редактирование заявки с главного экрана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Нажать на заявку
-Нажать кнопку редактирования заявки
-Сохранить изменения</t>
-  </si>
-  <si>
     <t>Изменения сохранились и видны</t>
   </si>
   <si>
     <t>Открытие экрана заявки из меню</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на кнопку меню (три полоски)
-Выбрать пункт меню Заявки</t>
-  </si>
-  <si>
     <t>Виден экран с заявками</t>
   </si>
   <si>
     <t>Открытие экрана новостей из меню</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на кнопку меню (три полоски)
-Выбрать пункт меню Новости</t>
-  </si>
-  <si>
     <t>Виден экран с новостями</t>
   </si>
   <si>
     <t>Открытие экрана «о приложении» из меню</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на кнопку меню (три полоски)
-Выбрать пункт меню «О приложении»</t>
-  </si>
-  <si>
     <t>Виден экран с информацией о приложение</t>
   </si>
   <si>
     <t>Выход из приложения</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать кнопку выхода (портрет)
-Нажать на надпись Выйти</t>
-  </si>
-  <si>
     <t>Видна форма входа в приложение</t>
   </si>
   <si>
     <t>Открытие экрана тематических цитат</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Нажать на кнопку Тематических цитат (иконка Бабочка)</t>
-  </si>
-  <si>
     <t>Виден экран с Тематическими цитатами</t>
   </si>
   <si>
@@ -244,171 +186,263 @@
     <t>Фильтрация заявок</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Перейти на экран Заявки
+    <t>Виден экран с заявками подходящие под фильтр</t>
+  </si>
+  <si>
+    <t>Создание заявки с экрана заявок</t>
+  </si>
+  <si>
+    <t>Заявка отображается на экране заявок</t>
+  </si>
+  <si>
+    <t>Возврат из заявки к экрану заявок</t>
+  </si>
+  <si>
+    <t>Экран «Новости»</t>
+  </si>
+  <si>
+    <t>Сортировка новостей</t>
+  </si>
+  <si>
+    <t>Последняя новость станет отображаться вверху</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей</t>
+  </si>
+  <si>
+    <t>Виден экран с новостями подходящими под фильтр</t>
+  </si>
+  <si>
+    <t>Переход в панель управления новостями</t>
+  </si>
+  <si>
+    <t>Видны кнопки управления новостями</t>
+  </si>
+  <si>
+    <t>Экран «Панель управления»</t>
+  </si>
+  <si>
+    <t>Создание новости</t>
+  </si>
+  <si>
+    <t>Новость отображается на экране новостей</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Новость пропала с экрана новостей</t>
+  </si>
+  <si>
+    <t>Экран «Тематические цитаты»</t>
+  </si>
+  <si>
+    <t>Работа с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Нажатая цитата разворачивается и сворачивается по клику</t>
+  </si>
+  <si>
+    <t>Перейти на экран Новостей
 Нажать кнопку фильтра
-Отфильтровать заявки</t>
-  </si>
-  <si>
-    <t>Виден экран с заявками подходящие под фильтр</t>
-  </si>
-  <si>
-    <t>Редактирование заявки с экрана заявок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Заявки
-Нажать на заявку
-Нажать кнопку редактирования заявки
-Сохранить изменения</t>
-  </si>
-  <si>
-    <t>Создание заявки с экрана заявок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Заявки
-Нажать на кнопку создания заявки
-Ввести данные
-Сохранить изменения</t>
-  </si>
-  <si>
-    <t>Заявка отображается на экране заявок</t>
-  </si>
-  <si>
-    <t>Возврат из заявки к экрану заявок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Заявки
+Отфильтровать новости</t>
+  </si>
+  <si>
+    <t>Перейти на экран Новостей
+Нажать кнопку сортировки новостей</t>
+  </si>
+  <si>
+    <t>Перейти на экран Заявки
 Нажать на заявку
 Нажать кнопку назад</t>
   </si>
   <si>
-    <t>Экран «Новости»</t>
-  </si>
-  <si>
-    <t>Сортировка новостей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Новостей
-Нажать кнопку сортировки новостей</t>
-  </si>
-  <si>
-    <t>Последняя новость станет отображаться вверху</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Новостей
-Нажать кнопку фильтра
-Отфильтровать новости</t>
-  </si>
-  <si>
-    <t>Виден экран с новостями подходящими под фильтр</t>
-  </si>
-  <si>
-    <t>Переход в панель управления новостями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Новостей
+    <t>Перейти на экран Новостей
 Нажать на панель управления новостями</t>
   </si>
   <si>
-    <t>Видны кнопки управления новостями</t>
-  </si>
-  <si>
-    <t>Экран «Панель управления»</t>
-  </si>
-  <si>
-    <t>Создание новости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Новостей
+    <t>Перейти на экран Новостей
 Перейти на панель управления новостями
 Нажать на кнопку создания новости
 Ввести данные
 Сохранить изменения</t>
   </si>
   <si>
-    <t>Новость отображается на экране новостей</t>
-  </si>
-  <si>
-    <t>Редактирование новости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Новостей
+    <t>Перейти на экран Новостей
 Перейти на панель управления новостями
 Нажать кнопку редактирования новости
 Сохранить изменения</t>
   </si>
   <si>
-    <t>Удаление новости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Перейти на экран Новостей
+    <t>Перейти на экран Новостей
 Перейти на панель управления новостями
 Нажать кнопку удалить новость</t>
   </si>
   <si>
-    <t>Новость пропала с экрана новостей</t>
-  </si>
-  <si>
-    <t>Экран «Тематические цитаты»</t>
-  </si>
-  <si>
-    <t>Работа с тематическими цитатами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Нажать на кнопку Тематических цитат (иконка «Бабочка»)
+    <t>Нажать на кнопку Тематических цитат (иконка «Бабочка»)
 Нажать на одну из цитат
 Нажать повторно на одну из цитат</t>
   </si>
   <si>
-    <t>Нажатая цитата разворачивается и сворачивается по клику</t>
+    <t>Нажать на новость
+Нажать повторно на новость</t>
+  </si>
+  <si>
+    <t>Нажать на заявку</t>
+  </si>
+  <si>
+    <t>Нажать на заявки
+Нажать кнопку назад</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку создания заявки
+Ввести данные
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку меню (три полоски)
+Выбрать пункт меню Заявки</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку меню (три полоски)
+Выбрать пункт меню Новости</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку меню (три полоски)
+Выбрать пункт меню «О приложении»</t>
+  </si>
+  <si>
+    <t>Нажать кнопку выхода (портрет)
+Нажать на надпись Выйти</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Тематических цитат (иконка Бабочка)</t>
+  </si>
+  <si>
+    <t>Перейти на экран Заявки
+Нажать кнопку фильтра
+Отфильтровать заявки</t>
+  </si>
+  <si>
+    <t>Перейти на экран Заявки
+Нажать на кнопку создания заявки
+Ввести данные
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Нажать на блок заявок 
+Нажать повторно на блок заявок</t>
+  </si>
+  <si>
+    <t>Нажать на надпись «Все новости»</t>
+  </si>
+  <si>
+    <t>Нажать на надпись «Все заявки»</t>
+  </si>
+  <si>
+    <t>expandAll</t>
+  </si>
+  <si>
+    <t>openAllNews</t>
+  </si>
+  <si>
+    <t>openAllClaims</t>
+  </si>
+  <si>
+    <t>expandSingleNews</t>
+  </si>
+  <si>
+    <t>openSingleClaim</t>
+  </si>
+  <si>
+    <t>signInSuccess</t>
+  </si>
+  <si>
+    <t>signInFail</t>
+  </si>
+  <si>
+    <t>signInEmpty</t>
+  </si>
+  <si>
+    <t>claimScreen</t>
+  </si>
+  <si>
+    <t>newsScreenSorting</t>
+  </si>
+  <si>
+    <t>aboutScreenAndBackToMain</t>
+  </si>
+  <si>
+    <t>thematicQuotes</t>
+  </si>
+  <si>
+    <t>filteringClaims</t>
+  </si>
+  <si>
+    <t>createClaim</t>
+  </si>
+  <si>
+    <t>newsScreenFiltering</t>
+  </si>
+  <si>
+    <t>controlPanelCreateNews</t>
+  </si>
+  <si>
+    <t>newsEditingDeleting</t>
+  </si>
+  <si>
+    <t>Вход не выполнен</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Вход выполнен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -431,56 +465,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Тема Office">
       <a:dk1>
@@ -682,7 +812,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -701,7 +831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,9 +1082,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -971,7 +1107,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -990,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,9 +1373,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1253,7 +1395,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1272,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,7 +1574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1523,605 +1665,740 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="74.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="39.55" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s" s="5">
+      <c r="D2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="26.55" customHeight="1">
-      <c r="A3" s="3">
+      <c r="H2" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" t="s" s="2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" t="s" s="5">
+      <c r="D3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="39.55" customHeight="1">
-      <c r="A4" s="3">
+      <c r="H3" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" t="s" s="2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" t="s" s="5">
+      <c r="D4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" ht="39.55" customHeight="1">
-      <c r="A5" s="3">
+      <c r="H4" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s" s="2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" t="s" s="5">
+      <c r="D5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" ht="26.55" customHeight="1">
-      <c r="A6" s="3">
+      <c r="H5" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" t="s" s="5">
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" ht="39.55" customHeight="1">
-      <c r="A7" s="3">
+      <c r="H6" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" t="s" s="2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" t="s" s="5">
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="H7" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" ht="26.55" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" t="s" s="2">
+      <c r="D8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" t="s" s="5">
+      <c r="H8" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="D9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" ht="26.55" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" t="s" s="2">
+      <c r="H9" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" t="s" s="5">
+      <c r="D10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="H10" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" ht="39.55" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="2">
+      <c r="D11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" t="s" s="5">
+      <c r="H11" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="D12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" ht="26.55" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" t="s" s="2">
+      <c r="H12" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" t="s" s="5">
+      <c r="D13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="H13" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>22</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>23</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>24</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>26</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" ht="39.55" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" ht="52.55" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" ht="52.55" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" ht="39.55" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" ht="39.55" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" ht="39.55" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" ht="39.55" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" ht="26.55" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" ht="52.55" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s" s="2">
+      <c r="H26" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>28</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" ht="65.55" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s" s="2">
+      <c r="D27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" t="s" s="5">
+      <c r="H27" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" ht="65.55" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" t="s" s="2">
+      <c r="C28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" t="s" s="5">
+      <c r="D28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" ht="52.55" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" ht="39.55" customHeight="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" ht="52.55" customHeight="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" ht="39.55" customHeight="1">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" ht="78.55" customHeight="1">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" ht="65.55" customHeight="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" ht="52.55" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" ht="52.55" customHeight="1">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="H28" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B6:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
